--- a/output126.xlsx
+++ b/output126.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>¬a¬bc¬d</t>
+          <t>¬a¬b¬cd</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -452,7 +452,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>¬abc¬d</t>
+          <t>¬ab¬cd</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -526,7 +526,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>a¬cd</t>
+          <t>a¬bc</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -563,7 +563,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>a¬bc</t>
+          <t>ac¬d</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ab¬c</t>
+          <t>ab¬d</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -628,16 +628,16 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>¬a¬d</t>
+          <t>¬a¬c</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -674,7 +674,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>c¬d</t>
+          <t>¬cd</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -690,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
